--- a/phpExcelReader/users/sample_users.xlsx
+++ b/phpExcelReader/users/sample_users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>First Name</t>
   </si>
@@ -27,73 +27,49 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>DoB</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
+    <t>Salaudeen</t>
+  </si>
+  <si>
+    <t>Rabiu Niyi</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
     <t>Badmus</t>
   </si>
   <si>
+    <t>Niyious</t>
+  </si>
+  <si>
+    <t>Soladoye</t>
+  </si>
+  <si>
+    <t>AbdulRasheed</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>Ayomide</t>
-  </si>
-  <si>
-    <t>Amoniyi</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Omololu</t>
-  </si>
-  <si>
-    <t>Bashir</t>
-  </si>
-  <si>
-    <t>Chukwuma</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Olatunde</t>
-  </si>
-  <si>
-    <t>Nonso</t>
-  </si>
-  <si>
-    <t>Robinson</t>
-  </si>
-  <si>
-    <t>ch_ayo2@yahoo.com</t>
-  </si>
-  <si>
-    <t>Fine</t>
-  </si>
-  <si>
-    <t>luxury200ymail.com</t>
-  </si>
-  <si>
-    <t>frank202@gossout.com</t>
-  </si>
-  <si>
-    <t>badmus_00@hotmail.com</t>
-  </si>
-  <si>
-    <t>12/kk/1974</t>
-  </si>
-  <si>
-    <t>robson@syntaxinnovations.com</t>
-  </si>
-  <si>
-    <t>no266600@gmail.com</t>
+    <t>razzing_00@gmail.com</t>
+  </si>
+  <si>
+    <t>badmus@gmail.com</t>
+  </si>
+  <si>
+    <t>DoB(MDY)</t>
+  </si>
+  <si>
+    <t>ray@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> niyi3000s200@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> niy233@gossout.com</t>
   </si>
 </sst>
 </file>
@@ -450,19 +426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="6" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
@@ -476,126 +451,106 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>30298</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>29567</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="2">
+        <v>35442</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>24819</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18275</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>3270</v>
+        <v>16449</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>33606</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>32764</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>22277</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5" display="luxury200@gmail.com"/>
-    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId7"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/phpExcelReader/users/sample_users.xlsx
+++ b/phpExcelReader/users/sample_users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>First Name</t>
   </si>
@@ -54,22 +54,28 @@
     <t>F</t>
   </si>
   <si>
-    <t>razzing_00@gmail.com</t>
-  </si>
-  <si>
-    <t>badmus@gmail.com</t>
-  </si>
-  <si>
     <t>DoB(MDY)</t>
   </si>
   <si>
-    <t>ray@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> niyi3000s200@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> niy233@gossout.com</t>
+    <t>razzingking_00@gmail.com</t>
+  </si>
+  <si>
+    <t>b204444@gmail.com</t>
+  </si>
+  <si>
+    <t>ba20000@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mm30000@gossout.com</t>
+  </si>
+  <si>
+    <t>10/32/1992</t>
+  </si>
+  <si>
+    <t>1980/3/45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> niyi300000@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,7 +443,8 @@
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
@@ -451,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -468,11 +475,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
-        <v>29567</v>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -489,7 +496,7 @@
         <v>35442</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -503,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>18275</v>
+        <v>36555</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -520,10 +527,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>16449</v>
+        <v>21897</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -536,11 +543,11 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
-        <v>33606</v>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
